--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sfrp2</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sfrp2</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,14 +519,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.575715666666667</v>
+        <v>24.874192</v>
       </c>
       <c r="H2">
-        <v>19.727147</v>
+        <v>74.622576</v>
       </c>
       <c r="I2">
-        <v>0.2077500326255795</v>
+        <v>0.9919386828123152</v>
       </c>
       <c r="J2">
-        <v>0.2077500326255795</v>
+        <v>0.9919386828123153</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N2">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q2">
-        <v>65.23751511991878</v>
+        <v>81.61495182172267</v>
       </c>
       <c r="R2">
-        <v>587.1376360792691</v>
+        <v>734.534566395504</v>
       </c>
       <c r="S2">
-        <v>0.1117510274975207</v>
+        <v>0.2757330784693105</v>
       </c>
       <c r="T2">
-        <v>0.1117510274975207</v>
+        <v>0.2757330784693106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.575715666666667</v>
+        <v>24.874192</v>
       </c>
       <c r="H3">
-        <v>19.727147</v>
+        <v>74.622576</v>
       </c>
       <c r="I3">
-        <v>0.2077500326255795</v>
+        <v>0.9919386828123152</v>
       </c>
       <c r="J3">
-        <v>0.2077500326255795</v>
+        <v>0.9919386828123153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N3">
         <v>18.461809</v>
       </c>
       <c r="O3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q3">
-        <v>40.46653555876922</v>
+        <v>153.0741939111093</v>
       </c>
       <c r="R3">
-        <v>364.198820028923</v>
+        <v>1377.667745199984</v>
       </c>
       <c r="S3">
-        <v>0.06931865690538347</v>
+        <v>0.5171554694232433</v>
       </c>
       <c r="T3">
-        <v>0.06931865690538347</v>
+        <v>0.5171554694232432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.575715666666667</v>
+        <v>24.874192</v>
       </c>
       <c r="H4">
-        <v>19.727147</v>
+        <v>74.622576</v>
       </c>
       <c r="I4">
-        <v>0.2077500326255795</v>
+        <v>0.9919386828123152</v>
       </c>
       <c r="J4">
-        <v>0.2077500326255795</v>
+        <v>0.9919386828123153</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>7.105843</v>
       </c>
       <c r="O4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q4">
-        <v>15.57533437999122</v>
+        <v>58.91736770128533</v>
       </c>
       <c r="R4">
-        <v>140.178009419921</v>
+        <v>530.256309311568</v>
       </c>
       <c r="S4">
-        <v>0.0266803482226753</v>
+        <v>0.1990501349197615</v>
       </c>
       <c r="T4">
-        <v>0.0266803482226753</v>
+        <v>0.1990501349197615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>24.874192</v>
+        <v>0.2021483333333333</v>
       </c>
       <c r="H5">
-        <v>74.622576</v>
+        <v>0.606445</v>
       </c>
       <c r="I5">
-        <v>0.7858633890954824</v>
+        <v>0.008061317187684791</v>
       </c>
       <c r="J5">
-        <v>0.7858633890954825</v>
+        <v>0.008061317187684791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N5">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O5">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P5">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q5">
-        <v>246.7762535599946</v>
+        <v>0.6632708506005557</v>
       </c>
       <c r="R5">
-        <v>2220.986282039952</v>
+        <v>5.969437655405001</v>
       </c>
       <c r="S5">
-        <v>0.4227245603488342</v>
+        <v>0.002240835893581602</v>
       </c>
       <c r="T5">
-        <v>0.4227245603488343</v>
+        <v>0.002240835893581602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>24.874192</v>
+        <v>0.2021483333333333</v>
       </c>
       <c r="H6">
-        <v>74.622576</v>
+        <v>0.606445</v>
       </c>
       <c r="I6">
-        <v>0.7858633890954824</v>
+        <v>0.008061317187684791</v>
       </c>
       <c r="J6">
-        <v>0.7858633890954825</v>
+        <v>0.008061317187684791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N6">
         <v>18.461809</v>
       </c>
       <c r="O6">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P6">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q6">
-        <v>153.0741939111093</v>
+        <v>1.244007973222778</v>
       </c>
       <c r="R6">
-        <v>1377.667745199984</v>
+        <v>11.196071759005</v>
       </c>
       <c r="S6">
-        <v>0.2622141327957814</v>
+        <v>0.004202834657629332</v>
       </c>
       <c r="T6">
-        <v>0.2622141327957815</v>
+        <v>0.004202834657629331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>24.874192</v>
+        <v>0.2021483333333333</v>
       </c>
       <c r="H7">
-        <v>74.622576</v>
+        <v>0.606445</v>
       </c>
       <c r="I7">
-        <v>0.7858633890954824</v>
+        <v>0.008061317187684791</v>
       </c>
       <c r="J7">
-        <v>0.7858633890954825</v>
+        <v>0.008061317187684791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>7.105843</v>
       </c>
       <c r="O7">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P7">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q7">
-        <v>58.91736770128533</v>
+        <v>0.4788114397927778</v>
       </c>
       <c r="R7">
-        <v>530.256309311568</v>
+        <v>4.309302958135</v>
       </c>
       <c r="S7">
-        <v>0.1009246959508667</v>
+        <v>0.001617646636473857</v>
       </c>
       <c r="T7">
-        <v>0.1009246959508667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.2021483333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.606445</v>
-      </c>
-      <c r="I8">
-        <v>0.006386578278938132</v>
-      </c>
-      <c r="J8">
-        <v>0.006386578278938132</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.920975666666667</v>
-      </c>
-      <c r="N8">
-        <v>29.762927</v>
-      </c>
-      <c r="O8">
-        <v>0.5379109985456686</v>
-      </c>
-      <c r="P8">
-        <v>0.5379109985456686</v>
-      </c>
-      <c r="Q8">
-        <v>2.005508696057222</v>
-      </c>
-      <c r="R8">
-        <v>18.049578264515</v>
-      </c>
-      <c r="S8">
-        <v>0.003435410699313688</v>
-      </c>
-      <c r="T8">
-        <v>0.003435410699313688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.2021483333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.606445</v>
-      </c>
-      <c r="I9">
-        <v>0.006386578278938132</v>
-      </c>
-      <c r="J9">
-        <v>0.006386578278938132</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.153936333333333</v>
-      </c>
-      <c r="N9">
-        <v>18.461809</v>
-      </c>
-      <c r="O9">
-        <v>0.3336637594195426</v>
-      </c>
-      <c r="P9">
-        <v>0.3336637594195426</v>
-      </c>
-      <c r="Q9">
-        <v>1.244007973222778</v>
-      </c>
-      <c r="R9">
-        <v>11.196071759005</v>
-      </c>
-      <c r="S9">
-        <v>0.002130969718377689</v>
-      </c>
-      <c r="T9">
-        <v>0.002130969718377689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.2021483333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.606445</v>
-      </c>
-      <c r="I10">
-        <v>0.006386578278938132</v>
-      </c>
-      <c r="J10">
-        <v>0.006386578278938132</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.368614333333333</v>
-      </c>
-      <c r="N10">
-        <v>7.105843</v>
-      </c>
-      <c r="O10">
-        <v>0.1284252420347888</v>
-      </c>
-      <c r="P10">
-        <v>0.1284252420347888</v>
-      </c>
-      <c r="Q10">
-        <v>0.4788114397927778</v>
-      </c>
-      <c r="R10">
-        <v>4.309302958135</v>
-      </c>
-      <c r="S10">
-        <v>0.0008201978612467542</v>
-      </c>
-      <c r="T10">
-        <v>0.0008201978612467542</v>
+        <v>0.001617646636473857</v>
       </c>
     </row>
   </sheetData>
